--- a/数学/C_高三年级（2017届）/rah/高二下数学周二测试成绩(3)(9)_-_副本.xlsx
+++ b/数学/C_高三年级（2017届）/rah/高二下数学周二测试成绩(3)(9)_-_副本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18255" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18255" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -2993,53 +2993,64 @@
     <col min="2" max="2" width="5.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="3.625" style="4"/>
     <col min="4" max="12" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="3.625" style="4"/>
+    <col min="13" max="13" width="3.625" style="4"/>
+    <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.625" style="4"/>
+    <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="3.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="9">
+        <v>95</v>
       </c>
       <c r="D1" s="8">
-        <v>123</v>
-      </c>
-      <c r="E1" s="9">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="E1" s="8">
+        <v>80</v>
       </c>
       <c r="F1" s="8">
+        <v>115</v>
+      </c>
+      <c r="G1" s="8">
+        <v>130</v>
+      </c>
+      <c r="H1" s="8">
         <v>124</v>
-      </c>
-      <c r="G1" s="9">
-        <v>138</v>
-      </c>
-      <c r="H1" s="9">
-        <v>138</v>
       </c>
       <c r="I1" s="9">
         <v>95</v>
       </c>
       <c r="J1" s="8">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K1" s="8">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L1" s="9">
-        <v>148</v>
-      </c>
-      <c r="M1" s="17">
-        <f t="shared" ref="M1:M40" si="0">L1-K1</f>
-        <v>23</v>
-      </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="M1" s="8">
+        <f>L1-K1</f>
+        <v>9</v>
+      </c>
+      <c r="N1" s="9">
+        <v>135</v>
+      </c>
+      <c r="O1" s="9">
+        <v>143</v>
+      </c>
+      <c r="P1" s="8">
+        <f>N1-O1</f>
+        <v>-8</v>
+      </c>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -3051,48 +3062,55 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9">
-        <v>95</v>
-      </c>
-      <c r="D2" s="9">
-        <v>140</v>
-      </c>
-      <c r="E2" s="9">
-        <v>95</v>
-      </c>
-      <c r="F2" s="8">
-        <v>127</v>
-      </c>
-      <c r="G2" s="9">
-        <v>141</v>
-      </c>
-      <c r="H2" s="9">
-        <v>142</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8">
+        <v>104</v>
+      </c>
+      <c r="E2" s="8">
+        <v>75</v>
+      </c>
+      <c r="F2" s="9">
+        <v>138</v>
+      </c>
+      <c r="G2" s="8">
+        <v>102</v>
+      </c>
+      <c r="H2" s="8">
+        <v>116</v>
       </c>
       <c r="I2" s="8">
         <v>90</v>
       </c>
-      <c r="J2" s="9">
-        <v>133</v>
-      </c>
-      <c r="K2" s="9">
-        <v>138</v>
+      <c r="J2" s="8">
+        <v>109</v>
+      </c>
+      <c r="K2" s="8">
+        <v>125</v>
       </c>
       <c r="L2" s="9">
-        <v>148</v>
-      </c>
-      <c r="M2" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="M2" s="16">
+        <f>L2-K2</f>
+        <v>21</v>
+      </c>
+      <c r="N2" s="9">
+        <v>135</v>
+      </c>
+      <c r="O2" s="9">
+        <v>146</v>
+      </c>
+      <c r="P2" s="8">
+        <f>N2-O2</f>
+        <v>-11</v>
+      </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -3104,48 +3122,55 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D3" s="9">
+        <v>143</v>
       </c>
       <c r="E3" s="9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F3" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G3" s="9">
-        <v>140</v>
-      </c>
-      <c r="H3" s="8">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="H3" s="9">
+        <v>142</v>
       </c>
       <c r="I3" s="9">
-        <v>95</v>
-      </c>
-      <c r="J3" s="8">
-        <v>118</v>
-      </c>
-      <c r="K3" s="9">
-        <v>139</v>
-      </c>
-      <c r="L3" s="9">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="J3" s="9">
+        <v>121</v>
+      </c>
+      <c r="K3" s="8">
+        <v>133</v>
+      </c>
+      <c r="L3" s="8">
+        <v>142</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>L3-K3</f>
         <v>9</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="N3" s="9">
+        <v>132</v>
+      </c>
+      <c r="O3" s="8">
+        <v>142</v>
+      </c>
+      <c r="P3" s="8">
+        <f>N3-O3</f>
+        <v>-10</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -3157,48 +3182,55 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8">
-        <v>85</v>
-      </c>
-      <c r="D4" s="9">
-        <v>141</v>
+        <v>70</v>
+      </c>
+      <c r="D4" s="8">
+        <v>124</v>
       </c>
       <c r="E4" s="9">
-        <v>85</v>
-      </c>
-      <c r="F4" s="8">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="F4" s="9">
+        <v>143</v>
       </c>
       <c r="G4" s="8">
-        <v>132</v>
-      </c>
-      <c r="H4" s="9">
+        <v>124</v>
+      </c>
+      <c r="H4" s="8">
+        <v>134</v>
+      </c>
+      <c r="I4" s="9">
+        <v>95</v>
+      </c>
+      <c r="J4" s="9">
+        <v>125</v>
+      </c>
+      <c r="K4" s="9">
+        <v>145</v>
+      </c>
+      <c r="L4" s="8">
         <v>140</v>
       </c>
-      <c r="I4" s="8">
-        <v>90</v>
-      </c>
-      <c r="J4" s="8">
-        <v>112</v>
-      </c>
-      <c r="K4" s="9">
-        <v>146</v>
-      </c>
-      <c r="L4" s="9">
-        <v>148</v>
-      </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+        <f>L4-K4</f>
+        <v>-5</v>
+      </c>
+      <c r="N4" s="9">
+        <v>131</v>
+      </c>
+      <c r="O4" s="8">
+        <v>140</v>
+      </c>
+      <c r="P4" s="8">
+        <f>N4-O4</f>
+        <v>-9</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -3210,48 +3242,55 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8">
+        <v>80</v>
+      </c>
+      <c r="D5" s="8">
+        <v>130</v>
+      </c>
+      <c r="E5" s="9">
         <v>85</v>
       </c>
-      <c r="D5" s="8">
-        <v>104</v>
-      </c>
-      <c r="E5" s="8">
-        <v>75</v>
-      </c>
       <c r="F5" s="9">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G5" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="H5" s="8">
-        <v>116</v>
-      </c>
-      <c r="I5" s="8">
-        <v>90</v>
-      </c>
-      <c r="J5" s="8">
-        <v>109</v>
-      </c>
-      <c r="K5" s="8">
-        <v>125</v>
+        <v>134</v>
+      </c>
+      <c r="I5" s="9">
+        <v>95</v>
+      </c>
+      <c r="J5" s="9">
+        <v>131</v>
+      </c>
+      <c r="K5" s="9">
+        <v>144</v>
       </c>
       <c r="L5" s="9">
-        <v>146</v>
-      </c>
-      <c r="M5" s="17">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="M5" s="8">
+        <f>L5-K5</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
+        <v>131</v>
+      </c>
+      <c r="O5" s="9">
+        <v>145</v>
+      </c>
+      <c r="P5" s="8">
+        <f>N5-O5</f>
+        <v>-14</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -3263,48 +3302,55 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="4">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8">
         <v>75</v>
       </c>
       <c r="D6" s="8">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E6" s="9">
         <v>85</v>
       </c>
-      <c r="F6" s="8">
-        <v>115</v>
-      </c>
-      <c r="G6" s="8">
-        <v>127</v>
-      </c>
-      <c r="H6" s="8">
-        <v>134</v>
+      <c r="F6" s="9">
+        <v>128</v>
+      </c>
+      <c r="G6" s="11">
+        <v>132</v>
+      </c>
+      <c r="H6" s="9">
+        <v>138</v>
       </c>
       <c r="I6" s="8">
-        <v>95</v>
-      </c>
-      <c r="J6" s="8">
-        <v>117</v>
-      </c>
-      <c r="K6" s="8">
-        <v>126</v>
-      </c>
-      <c r="L6" s="9">
-        <v>145</v>
-      </c>
-      <c r="M6" s="17">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="J6" s="9">
+        <v>122</v>
+      </c>
+      <c r="K6" s="9">
+        <v>140</v>
+      </c>
+      <c r="L6" s="8">
+        <v>138</v>
+      </c>
+      <c r="M6" s="8">
+        <f>L6-K6</f>
+        <v>-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>131</v>
+      </c>
+      <c r="O6" s="8">
+        <v>138</v>
+      </c>
+      <c r="P6" s="8">
+        <f>N6-O6</f>
+        <v>-7</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -3316,48 +3362,55 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
-        <v>70</v>
-      </c>
-      <c r="D7" s="8">
-        <v>131</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>95</v>
+      </c>
+      <c r="D7" s="9">
+        <v>135</v>
       </c>
       <c r="E7" s="8">
-        <v>75</v>
-      </c>
-      <c r="F7" s="8">
-        <v>114</v>
-      </c>
-      <c r="G7" s="8">
+        <v>80</v>
+      </c>
+      <c r="F7" s="9">
+        <v>133</v>
+      </c>
+      <c r="G7" s="9">
+        <v>140</v>
+      </c>
+      <c r="H7" s="9">
+        <v>138</v>
+      </c>
+      <c r="I7" s="8">
+        <v>80</v>
+      </c>
+      <c r="J7" s="9">
         <v>132</v>
       </c>
-      <c r="H7" s="8">
-        <v>130</v>
-      </c>
-      <c r="I7" s="9">
-        <v>95</v>
-      </c>
-      <c r="J7" s="8">
-        <v>110</v>
-      </c>
       <c r="K7" s="8">
-        <v>136</v>
-      </c>
-      <c r="L7" s="9">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="L7" s="8">
+        <v>137</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+        <f>L7-K7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>129</v>
+      </c>
+      <c r="O7" s="8">
+        <v>137</v>
+      </c>
+      <c r="P7" s="8">
+        <f>N7-O7</f>
+        <v>-8</v>
+      </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -3369,48 +3422,55 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9">
-        <v>95</v>
-      </c>
-      <c r="D8" s="9">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8">
+        <v>129</v>
+      </c>
+      <c r="E8" s="8">
+        <v>75</v>
+      </c>
+      <c r="F8" s="8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="8">
+        <v>128</v>
+      </c>
+      <c r="H8" s="8">
+        <v>132</v>
+      </c>
+      <c r="I8" s="8">
+        <v>85</v>
+      </c>
+      <c r="J8" s="12">
+        <v>116</v>
+      </c>
+      <c r="K8" s="9">
         <v>147</v>
       </c>
-      <c r="E8" s="9">
-        <v>100</v>
-      </c>
-      <c r="F8" s="9">
-        <v>137</v>
-      </c>
-      <c r="G8" s="9">
-        <v>138</v>
-      </c>
-      <c r="H8" s="9">
-        <v>144</v>
-      </c>
-      <c r="I8" s="8">
-        <v>80</v>
-      </c>
-      <c r="J8" s="9">
-        <v>122</v>
-      </c>
-      <c r="K8" s="9">
-        <v>144</v>
-      </c>
       <c r="L8" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+        <f>L8-K8</f>
+        <v>-4</v>
+      </c>
+      <c r="N8" s="9">
+        <v>127</v>
+      </c>
+      <c r="O8" s="9">
+        <v>143</v>
+      </c>
+      <c r="P8" s="8">
+        <f>N8-O8</f>
+        <v>-16</v>
+      </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -3422,34 +3482,34 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="4">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>95</v>
+      </c>
+      <c r="D9" s="9">
+        <v>147</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9">
+        <v>137</v>
+      </c>
+      <c r="G9" s="9">
+        <v>138</v>
+      </c>
+      <c r="H9" s="9">
+        <v>144</v>
+      </c>
+      <c r="I9" s="8">
         <v>80</v>
       </c>
-      <c r="D9" s="8">
-        <v>130</v>
-      </c>
-      <c r="E9" s="9">
-        <v>85</v>
-      </c>
-      <c r="F9" s="9">
-        <v>132</v>
-      </c>
-      <c r="G9" s="8">
-        <v>130</v>
-      </c>
-      <c r="H9" s="8">
-        <v>134</v>
-      </c>
-      <c r="I9" s="9">
-        <v>95</v>
-      </c>
       <c r="J9" s="9">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K9" s="9">
         <v>144</v>
@@ -3458,12 +3518,19 @@
         <v>145</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="0"/>
+        <f>L9-K9</f>
         <v>1</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="N9" s="9">
+        <v>126</v>
+      </c>
+      <c r="O9" s="9">
+        <v>145</v>
+      </c>
+      <c r="P9" s="8">
+        <f>N9-O9</f>
+        <v>-19</v>
+      </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -3475,48 +3542,55 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>65</v>
       </c>
       <c r="D10" s="8">
+        <v>98</v>
+      </c>
+      <c r="E10" s="8">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8">
+        <v>97</v>
+      </c>
+      <c r="G10" s="8">
+        <v>103</v>
+      </c>
+      <c r="H10" s="8">
+        <v>103</v>
+      </c>
+      <c r="I10" s="9">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>101</v>
+      </c>
+      <c r="K10" s="8">
+        <v>109</v>
+      </c>
+      <c r="L10" s="8">
+        <v>137</v>
+      </c>
+      <c r="M10" s="16">
+        <f>L10-K10</f>
+        <v>28</v>
+      </c>
+      <c r="N10" s="9">
         <v>126</v>
       </c>
-      <c r="E10" s="8">
-        <v>80</v>
-      </c>
-      <c r="F10" s="8">
-        <v>115</v>
-      </c>
-      <c r="G10" s="8">
-        <v>130</v>
-      </c>
-      <c r="H10" s="8">
-        <v>124</v>
-      </c>
-      <c r="I10" s="9">
-        <v>95</v>
-      </c>
-      <c r="J10" s="8">
-        <v>110</v>
-      </c>
-      <c r="K10" s="8">
-        <v>134</v>
-      </c>
-      <c r="L10" s="9">
-        <v>143</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="O10" s="8">
+        <v>137</v>
+      </c>
+      <c r="P10" s="8">
+        <f>N10-O10</f>
+        <v>-11</v>
+      </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -3528,48 +3602,55 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" s="8">
+        <v>75</v>
+      </c>
+      <c r="D11" s="8">
+        <v>109</v>
+      </c>
+      <c r="E11" s="9">
         <v>85</v>
       </c>
-      <c r="D11" s="8">
-        <v>129</v>
-      </c>
-      <c r="E11" s="8">
-        <v>75</v>
-      </c>
       <c r="F11" s="8">
-        <v>100</v>
-      </c>
-      <c r="G11" s="8">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="G11" s="9">
+        <v>140</v>
       </c>
       <c r="H11" s="8">
-        <v>132</v>
-      </c>
-      <c r="I11" s="8">
-        <v>85</v>
-      </c>
-      <c r="J11" s="12">
-        <v>116</v>
+        <v>135</v>
+      </c>
+      <c r="I11" s="9">
+        <v>95</v>
+      </c>
+      <c r="J11" s="8">
+        <v>118</v>
       </c>
       <c r="K11" s="9">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L11" s="9">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+        <f>L11-K11</f>
+        <v>9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>125</v>
+      </c>
+      <c r="O11" s="9">
+        <v>148</v>
+      </c>
+      <c r="P11" s="8">
+        <f>N11-O11</f>
+        <v>-23</v>
+      </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -3581,48 +3662,55 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="4">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="9">
+        <v>90</v>
       </c>
       <c r="D12" s="9">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E12" s="9">
+        <v>85</v>
+      </c>
+      <c r="F12" s="8">
+        <v>123</v>
+      </c>
+      <c r="G12" s="8">
+        <v>124</v>
+      </c>
+      <c r="H12" s="9">
+        <v>141</v>
+      </c>
+      <c r="I12" s="8">
         <v>90</v>
       </c>
-      <c r="F12" s="8">
+      <c r="J12" s="9">
         <v>120</v>
       </c>
-      <c r="G12" s="9">
-        <v>137</v>
-      </c>
-      <c r="H12" s="9">
-        <v>142</v>
-      </c>
-      <c r="I12" s="9">
-        <v>100</v>
-      </c>
-      <c r="J12" s="9">
-        <v>121</v>
-      </c>
-      <c r="K12" s="8">
-        <v>133</v>
+      <c r="K12" s="9">
+        <v>144</v>
       </c>
       <c r="L12" s="8">
         <v>142</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+        <f>L12-K12</f>
+        <v>-2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>125</v>
+      </c>
+      <c r="O12" s="8">
+        <v>142</v>
+      </c>
+      <c r="P12" s="8">
+        <f>N12-O12</f>
+        <v>-17</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -3634,48 +3722,55 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="4">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9">
-        <v>90</v>
-      </c>
-      <c r="D13" s="9">
-        <v>137</v>
-      </c>
-      <c r="E13" s="9">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8">
+        <v>131</v>
+      </c>
+      <c r="E13" s="8">
+        <v>75</v>
       </c>
       <c r="F13" s="8">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G13" s="8">
+        <v>132</v>
+      </c>
+      <c r="H13" s="8">
+        <v>130</v>
+      </c>
+      <c r="I13" s="9">
+        <v>95</v>
+      </c>
+      <c r="J13" s="8">
+        <v>110</v>
+      </c>
+      <c r="K13" s="8">
+        <v>136</v>
+      </c>
+      <c r="L13" s="9">
+        <v>145</v>
+      </c>
+      <c r="M13" s="8">
+        <f>L13-K13</f>
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
         <v>124</v>
       </c>
-      <c r="H13" s="9">
-        <v>141</v>
-      </c>
-      <c r="I13" s="8">
-        <v>90</v>
-      </c>
-      <c r="J13" s="9">
-        <v>120</v>
-      </c>
-      <c r="K13" s="9">
-        <v>144</v>
-      </c>
-      <c r="L13" s="8">
-        <v>142</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="O13" s="9">
+        <v>145</v>
+      </c>
+      <c r="P13" s="8">
+        <f>N13-O13</f>
+        <v>-21</v>
+      </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -3687,48 +3782,55 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="4">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="9">
-        <v>90</v>
-      </c>
-      <c r="D14" s="8">
-        <v>134</v>
-      </c>
-      <c r="E14" s="8">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="8">
+        <v>85</v>
+      </c>
+      <c r="D14" s="9">
+        <v>141</v>
+      </c>
+      <c r="E14" s="9">
+        <v>85</v>
       </c>
       <c r="F14" s="8">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G14" s="8">
-        <v>125</v>
-      </c>
-      <c r="H14" s="8">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="H14" s="9">
+        <v>140</v>
       </c>
       <c r="I14" s="8">
         <v>90</v>
       </c>
-      <c r="J14" s="9">
-        <v>125</v>
-      </c>
-      <c r="K14" s="8">
-        <v>125</v>
-      </c>
-      <c r="L14" s="8">
-        <v>140</v>
-      </c>
-      <c r="M14" s="17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="J14" s="8">
+        <v>112</v>
+      </c>
+      <c r="K14" s="9">
+        <v>146</v>
+      </c>
+      <c r="L14" s="9">
+        <v>148</v>
+      </c>
+      <c r="M14" s="8">
+        <f>L14-K14</f>
+        <v>2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>123</v>
+      </c>
+      <c r="O14" s="9">
+        <v>148</v>
+      </c>
+      <c r="P14" s="8">
+        <f>N14-O14</f>
+        <v>-25</v>
+      </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -3740,48 +3842,55 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8">
         <v>70</v>
       </c>
-      <c r="D15" s="8">
-        <v>124</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="9">
+        <v>139</v>
+      </c>
+      <c r="E15" s="8">
+        <v>80</v>
+      </c>
+      <c r="F15" s="9">
+        <v>130</v>
+      </c>
+      <c r="G15" s="8">
+        <v>122</v>
+      </c>
+      <c r="H15" s="8">
+        <v>130</v>
+      </c>
+      <c r="I15" s="8">
         <v>90</v>
       </c>
-      <c r="F15" s="9">
-        <v>143</v>
-      </c>
-      <c r="G15" s="8">
-        <v>124</v>
-      </c>
-      <c r="H15" s="8">
-        <v>134</v>
-      </c>
-      <c r="I15" s="9">
-        <v>95</v>
-      </c>
-      <c r="J15" s="9">
-        <v>125</v>
-      </c>
-      <c r="K15" s="9">
-        <v>145</v>
+      <c r="J15" s="8">
+        <v>100</v>
+      </c>
+      <c r="K15" s="8">
+        <v>122</v>
       </c>
       <c r="L15" s="8">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="0"/>
+        <f>L15-K15</f>
+        <v>4</v>
+      </c>
+      <c r="N15" s="8">
+        <v>121</v>
+      </c>
+      <c r="O15" s="8">
+        <v>126</v>
+      </c>
+      <c r="P15" s="8">
+        <f>N15-O15</f>
         <v>-5</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -3793,48 +3902,55 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8">
-        <v>75</v>
-      </c>
-      <c r="D16" s="8">
-        <v>107</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>95</v>
+      </c>
+      <c r="D16" s="9">
+        <v>140</v>
       </c>
       <c r="E16" s="9">
         <v>95</v>
       </c>
       <c r="F16" s="8">
-        <v>125</v>
-      </c>
-      <c r="G16" s="8">
-        <v>131</v>
-      </c>
-      <c r="H16" s="8">
-        <v>119</v>
-      </c>
-      <c r="I16" s="9">
-        <v>95</v>
-      </c>
-      <c r="J16" s="8">
-        <v>107</v>
-      </c>
-      <c r="K16" s="8">
+        <v>127</v>
+      </c>
+      <c r="G16" s="9">
+        <v>141</v>
+      </c>
+      <c r="H16" s="9">
+        <v>142</v>
+      </c>
+      <c r="I16" s="8">
+        <v>90</v>
+      </c>
+      <c r="J16" s="9">
+        <v>133</v>
+      </c>
+      <c r="K16" s="9">
+        <v>138</v>
+      </c>
+      <c r="L16" s="9">
+        <v>148</v>
+      </c>
+      <c r="M16" s="8">
+        <f>L16-K16</f>
+        <v>10</v>
+      </c>
+      <c r="N16" s="8">
         <v>120</v>
       </c>
-      <c r="L16" s="8">
-        <v>138</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="O16" s="9">
+        <v>148</v>
+      </c>
+      <c r="P16" s="8">
+        <f>N16-O16</f>
+        <v>-28</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -3846,48 +3962,55 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8">
+        <v>132</v>
+      </c>
+      <c r="E17" s="8">
         <v>80</v>
       </c>
-      <c r="D17" s="8">
-        <v>128</v>
-      </c>
-      <c r="E17" s="8">
-        <v>55</v>
-      </c>
-      <c r="F17" s="9">
-        <v>148</v>
+      <c r="F17" s="8">
+        <v>117</v>
       </c>
       <c r="G17" s="8">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H17" s="8">
-        <v>134</v>
-      </c>
-      <c r="I17" s="8">
-        <v>80</v>
+        <v>132</v>
+      </c>
+      <c r="I17" s="9">
+        <v>95</v>
       </c>
       <c r="J17" s="8">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K17" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L17" s="8">
-        <v>138</v>
-      </c>
-      <c r="M17" s="17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="M17" s="16">
+        <f>L17-K17</f>
+        <v>19</v>
+      </c>
+      <c r="N17" s="8">
+        <v>120</v>
+      </c>
+      <c r="O17" s="8">
+        <v>136</v>
+      </c>
+      <c r="P17" s="8">
+        <f>N17-O17</f>
+        <v>-16</v>
+      </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -3899,48 +4022,55 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8">
         <v>75</v>
       </c>
       <c r="D18" s="8">
-        <v>133</v>
-      </c>
-      <c r="E18" s="9">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="E18" s="8">
+        <v>70</v>
       </c>
       <c r="F18" s="9">
-        <v>128</v>
-      </c>
-      <c r="G18" s="11">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="G18" s="9">
+        <v>134</v>
       </c>
       <c r="H18" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I18" s="8">
-        <v>85</v>
-      </c>
-      <c r="J18" s="9">
-        <v>122</v>
-      </c>
-      <c r="K18" s="9">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="J18" s="8">
+        <v>97</v>
+      </c>
+      <c r="K18" s="8">
+        <v>121</v>
       </c>
       <c r="L18" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+        <f>L18-K18</f>
+        <v>13</v>
+      </c>
+      <c r="N18" s="8">
+        <v>119</v>
+      </c>
+      <c r="O18" s="8">
+        <v>134</v>
+      </c>
+      <c r="P18" s="8">
+        <f>N18-O18</f>
+        <v>-15</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -3952,48 +4082,55 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E19" s="8">
         <v>75</v>
       </c>
-      <c r="F19" s="8">
-        <v>97</v>
+      <c r="F19" s="9">
+        <v>128</v>
       </c>
       <c r="G19" s="8">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H19" s="8">
-        <v>103</v>
-      </c>
-      <c r="I19" s="9">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="I19" s="8">
+        <v>90</v>
       </c>
       <c r="J19" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K19" s="8">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L19" s="8">
         <v>137</v>
       </c>
-      <c r="M19" s="17">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="M19" s="16">
+        <f>L19-K19</f>
+        <v>16</v>
+      </c>
+      <c r="N19" s="8">
+        <v>119</v>
+      </c>
+      <c r="O19" s="8">
+        <v>137</v>
+      </c>
+      <c r="P19" s="8">
+        <f>N19-O19</f>
+        <v>-18</v>
+      </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -4005,48 +4142,55 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="4">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8">
+        <v>80</v>
+      </c>
+      <c r="D20" s="8">
+        <v>94</v>
+      </c>
+      <c r="E20" s="9">
         <v>85</v>
       </c>
-      <c r="D20" s="8">
-        <v>114</v>
-      </c>
-      <c r="E20" s="8">
-        <v>75</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
+        <v>97</v>
+      </c>
+      <c r="G20" s="8">
         <v>128</v>
       </c>
-      <c r="G20" s="8">
-        <v>121</v>
-      </c>
       <c r="H20" s="8">
-        <v>109</v>
-      </c>
-      <c r="I20" s="8">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="I20" s="9">
+        <v>95</v>
       </c>
       <c r="J20" s="8">
-        <v>110</v>
-      </c>
-      <c r="K20" s="8">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="K20" s="17">
+        <v>144</v>
       </c>
       <c r="L20" s="8">
-        <v>137</v>
-      </c>
-      <c r="M20" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="M20" s="8">
+        <f>L20-K20</f>
+        <v>-13</v>
+      </c>
+      <c r="N20" s="8">
+        <v>118</v>
+      </c>
+      <c r="O20" s="8">
+        <v>131</v>
+      </c>
+      <c r="P20" s="8">
+        <f>N20-O20</f>
+        <v>-13</v>
+      </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -4058,28 +4202,28 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="4">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C21" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8">
-        <v>132</v>
-      </c>
-      <c r="E21" s="8">
-        <v>80</v>
+        <v>123</v>
+      </c>
+      <c r="E21" s="9">
+        <v>95</v>
       </c>
       <c r="F21" s="8">
-        <v>117</v>
-      </c>
-      <c r="G21" s="8">
-        <v>132</v>
-      </c>
-      <c r="H21" s="8">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="G21" s="9">
+        <v>138</v>
+      </c>
+      <c r="H21" s="9">
+        <v>138</v>
       </c>
       <c r="I21" s="9">
         <v>95</v>
@@ -4087,19 +4231,26 @@
       <c r="J21" s="8">
         <v>98</v>
       </c>
-      <c r="K21" s="16">
-        <v>117</v>
-      </c>
-      <c r="L21" s="8">
-        <v>136</v>
-      </c>
-      <c r="M21" s="17">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="K21" s="8">
+        <v>125</v>
+      </c>
+      <c r="L21" s="9">
+        <v>148</v>
+      </c>
+      <c r="M21" s="16">
+        <f>L21-K21</f>
+        <v>23</v>
+      </c>
+      <c r="N21" s="8">
+        <v>116</v>
+      </c>
+      <c r="O21" s="9">
+        <v>148</v>
+      </c>
+      <c r="P21" s="8">
+        <f>N21-O21</f>
+        <v>-32</v>
+      </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -4111,48 +4262,55 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="9">
+        <v>95</v>
       </c>
       <c r="D22" s="8">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E22" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F22" s="8">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G22" s="8">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H22" s="8">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I22" s="8">
-        <v>90</v>
-      </c>
-      <c r="J22" s="8">
-        <v>86</v>
-      </c>
-      <c r="K22" s="8">
-        <v>121</v>
+        <v>85</v>
+      </c>
+      <c r="J22" s="9">
+        <v>132</v>
+      </c>
+      <c r="K22" s="9">
+        <v>138</v>
       </c>
       <c r="L22" s="8">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+        <f>L22-K22</f>
+        <v>-10</v>
+      </c>
+      <c r="N22" s="8">
+        <v>116</v>
+      </c>
+      <c r="O22" s="8">
+        <v>128</v>
+      </c>
+      <c r="P22" s="8">
+        <f>N22-O22</f>
+        <v>-12</v>
+      </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -4164,48 +4322,55 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D23" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E23" s="8">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F23" s="9">
-        <v>129</v>
-      </c>
-      <c r="G23" s="9">
+        <v>148</v>
+      </c>
+      <c r="G23" s="8">
+        <v>114</v>
+      </c>
+      <c r="H23" s="8">
         <v>134</v>
-      </c>
-      <c r="H23" s="9">
-        <v>136</v>
       </c>
       <c r="I23" s="8">
         <v>80</v>
       </c>
       <c r="J23" s="8">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K23" s="8">
         <v>121</v>
       </c>
       <c r="L23" s="8">
-        <v>134</v>
-      </c>
-      <c r="M23" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="M23" s="16">
+        <f>L23-K23</f>
+        <v>17</v>
+      </c>
+      <c r="N23" s="8">
+        <v>114</v>
+      </c>
+      <c r="O23" s="8">
+        <v>138</v>
+      </c>
+      <c r="P23" s="8">
+        <f>N23-O23</f>
+        <v>-24</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -4217,46 +4382,55 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="4">
-        <v>34</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="8">
-        <v>85</v>
-      </c>
-      <c r="D24" s="8">
-        <v>125</v>
-      </c>
-      <c r="E24" s="9">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="D24" s="9">
+        <v>135</v>
+      </c>
+      <c r="E24" s="8">
+        <v>70</v>
       </c>
       <c r="F24" s="8">
-        <v>119</v>
-      </c>
-      <c r="G24" s="8">
-        <v>124</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="G24" s="9">
+        <v>134</v>
+      </c>
+      <c r="H24" s="8">
+        <v>130</v>
+      </c>
       <c r="I24" s="8">
-        <v>85</v>
-      </c>
-      <c r="J24" s="8">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="J24" s="9">
+        <v>129</v>
       </c>
       <c r="K24" s="8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L24" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+        <f>L24-K24</f>
+        <v>-4</v>
+      </c>
+      <c r="N24" s="8">
+        <v>114</v>
+      </c>
+      <c r="O24" s="8">
+        <v>132</v>
+      </c>
+      <c r="P24" s="8">
+        <f>N24-O24</f>
+        <v>-18</v>
+      </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -4268,48 +4442,55 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" s="8">
         <v>75</v>
       </c>
-      <c r="D25" s="9">
-        <v>135</v>
-      </c>
-      <c r="E25" s="8">
-        <v>70</v>
+      <c r="D25" s="8">
+        <v>107</v>
+      </c>
+      <c r="E25" s="9">
+        <v>95</v>
       </c>
       <c r="F25" s="8">
-        <v>115</v>
-      </c>
-      <c r="G25" s="9">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="G25" s="8">
+        <v>131</v>
       </c>
       <c r="H25" s="8">
-        <v>130</v>
-      </c>
-      <c r="I25" s="8">
-        <v>90</v>
-      </c>
-      <c r="J25" s="9">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="I25" s="9">
+        <v>95</v>
+      </c>
+      <c r="J25" s="8">
+        <v>107</v>
       </c>
       <c r="K25" s="8">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L25" s="8">
-        <v>132</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="M25" s="16">
+        <f>L25-K25</f>
+        <v>18</v>
+      </c>
+      <c r="N25" s="8">
+        <v>114</v>
+      </c>
+      <c r="O25" s="8">
+        <v>138</v>
+      </c>
+      <c r="P25" s="8">
+        <f>N25-O25</f>
+        <v>-24</v>
+      </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -4321,48 +4502,55 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C26" s="8">
-        <v>60</v>
-      </c>
-      <c r="D26" s="8">
-        <v>128</v>
+        <v>65</v>
+      </c>
+      <c r="D26" s="9">
+        <v>137</v>
       </c>
       <c r="E26" s="8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G26" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I26" s="8">
         <v>75</v>
       </c>
-      <c r="J26" s="9">
-        <v>125</v>
+      <c r="J26" s="8">
+        <v>94</v>
       </c>
       <c r="K26" s="8">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="L26" s="8">
-        <v>131</v>
-      </c>
-      <c r="M26" s="17">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="M26" s="8">
+        <f>L26-K26</f>
+        <v>6</v>
+      </c>
+      <c r="N26" s="8">
+        <v>111</v>
+      </c>
+      <c r="O26" s="8">
+        <v>126</v>
+      </c>
+      <c r="P26" s="8">
+        <f>N26-O26</f>
+        <v>-15</v>
+      </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -4374,48 +4562,55 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D27" s="8">
+        <v>128</v>
+      </c>
+      <c r="E27" s="8">
+        <v>70</v>
+      </c>
+      <c r="F27" s="8">
+        <v>102</v>
+      </c>
+      <c r="G27" s="8">
+        <v>118</v>
+      </c>
+      <c r="H27" s="8">
         <v>94</v>
       </c>
-      <c r="E27" s="9">
-        <v>85</v>
-      </c>
-      <c r="F27" s="8">
-        <v>97</v>
-      </c>
-      <c r="G27" s="8">
-        <v>128</v>
-      </c>
-      <c r="H27" s="8">
-        <v>124</v>
-      </c>
-      <c r="I27" s="9">
-        <v>95</v>
-      </c>
-      <c r="J27" s="8">
-        <v>105</v>
-      </c>
-      <c r="K27" s="9">
-        <v>144</v>
+      <c r="I27" s="8">
+        <v>75</v>
+      </c>
+      <c r="J27" s="9">
+        <v>125</v>
+      </c>
+      <c r="K27" s="8">
+        <v>108</v>
       </c>
       <c r="L27" s="8">
         <v>131</v>
       </c>
-      <c r="M27" s="8">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="M27" s="16">
+        <f>L27-K27</f>
+        <v>23</v>
+      </c>
+      <c r="N27" s="8">
+        <v>109</v>
+      </c>
+      <c r="O27" s="8">
+        <v>131</v>
+      </c>
+      <c r="P27" s="8">
+        <f>N27-O27</f>
+        <v>-22</v>
+      </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -4427,48 +4622,55 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="4">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C28" s="9">
-        <v>95</v>
-      </c>
-      <c r="D28" s="10">
-        <v>144</v>
-      </c>
-      <c r="E28" s="9">
-        <v>85</v>
-      </c>
-      <c r="F28" s="9">
-        <v>138</v>
-      </c>
-      <c r="G28" s="9">
-        <v>135</v>
-      </c>
-      <c r="H28" s="9">
-        <v>137</v>
-      </c>
-      <c r="I28" s="9">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="D28" s="8">
+        <v>134</v>
+      </c>
+      <c r="E28" s="8">
+        <v>80</v>
+      </c>
+      <c r="F28" s="8">
+        <v>117</v>
+      </c>
+      <c r="G28" s="8">
+        <v>125</v>
+      </c>
+      <c r="H28" s="8">
+        <v>124</v>
+      </c>
+      <c r="I28" s="8">
+        <v>90</v>
       </c>
       <c r="J28" s="9">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="K28" s="8">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L28" s="8">
-        <v>129</v>
-      </c>
-      <c r="M28" s="8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="M28" s="16">
+        <f>L28-K28</f>
+        <v>15</v>
+      </c>
+      <c r="N28" s="8">
+        <v>109</v>
+      </c>
+      <c r="O28" s="8">
+        <v>140</v>
+      </c>
+      <c r="P28" s="8">
+        <f>N28-O28</f>
+        <v>-31</v>
+      </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -4480,48 +4682,55 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C29" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8">
+        <v>112</v>
+      </c>
+      <c r="E29" s="8">
+        <v>75</v>
+      </c>
+      <c r="F29" s="8">
         <v>106</v>
       </c>
-      <c r="E29" s="9">
-        <v>90</v>
-      </c>
-      <c r="F29" s="8">
-        <v>103</v>
-      </c>
       <c r="G29" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" s="8">
-        <v>126</v>
-      </c>
-      <c r="I29" s="9">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="I29" s="8">
+        <v>80</v>
       </c>
       <c r="J29" s="8">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K29" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L29" s="8">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
+        <f>L29-K29</f>
+        <v>-11</v>
+      </c>
+      <c r="N29" s="8">
+        <v>108</v>
+      </c>
+      <c r="O29" s="8">
+        <v>122</v>
+      </c>
+      <c r="P29" s="8">
+        <f>N29-O29</f>
+        <v>-14</v>
+      </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -4533,48 +4742,55 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C30" s="9">
         <v>95</v>
       </c>
-      <c r="D30" s="8">
-        <v>132</v>
-      </c>
-      <c r="E30" s="8">
-        <v>80</v>
-      </c>
-      <c r="F30" s="8">
-        <v>118</v>
-      </c>
-      <c r="G30" s="8">
-        <v>122</v>
-      </c>
-      <c r="H30" s="8">
-        <v>125</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="D30" s="10">
+        <v>144</v>
+      </c>
+      <c r="E30" s="9">
         <v>85</v>
       </c>
+      <c r="F30" s="9">
+        <v>138</v>
+      </c>
+      <c r="G30" s="9">
+        <v>135</v>
+      </c>
+      <c r="H30" s="9">
+        <v>137</v>
+      </c>
+      <c r="I30" s="9">
+        <v>95</v>
+      </c>
       <c r="J30" s="9">
-        <v>132</v>
-      </c>
-      <c r="K30" s="9">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="K30" s="8">
+        <v>133</v>
       </c>
       <c r="L30" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+        <f>L30-K30</f>
+        <v>-4</v>
+      </c>
+      <c r="N30" s="8">
+        <v>106</v>
+      </c>
+      <c r="O30" s="8">
+        <v>129</v>
+      </c>
+      <c r="P30" s="8">
+        <f>N30-O30</f>
+        <v>-23</v>
+      </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -4586,48 +4802,55 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="4">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="9">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="C31" s="8">
+        <v>60</v>
       </c>
       <c r="D31" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E31" s="9">
         <v>90</v>
       </c>
       <c r="F31" s="8">
-        <v>110</v>
-      </c>
-      <c r="G31" s="9">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="G31" s="8">
+        <v>118</v>
       </c>
       <c r="H31" s="8">
-        <v>114</v>
-      </c>
-      <c r="I31" s="8">
+        <v>126</v>
+      </c>
+      <c r="I31" s="9">
         <v>95</v>
       </c>
-      <c r="J31" s="9">
-        <v>123</v>
+      <c r="J31" s="8">
+        <v>92</v>
       </c>
       <c r="K31" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L31" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+        <f>L31-K31</f>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>104</v>
+      </c>
+      <c r="O31" s="8">
+        <v>128</v>
+      </c>
+      <c r="P31" s="8">
+        <f>N31-O31</f>
+        <v>-24</v>
+      </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -4639,48 +4862,55 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="9">
-        <v>95</v>
-      </c>
-      <c r="D32" s="9">
-        <v>135</v>
-      </c>
-      <c r="E32" s="8">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8">
         <v>80</v>
       </c>
-      <c r="F32" s="9">
-        <v>133</v>
-      </c>
-      <c r="G32" s="9">
-        <v>140</v>
-      </c>
-      <c r="H32" s="9">
-        <v>138</v>
+      <c r="D32" s="8">
+        <v>120</v>
+      </c>
+      <c r="E32" s="9">
+        <v>85</v>
+      </c>
+      <c r="F32" s="8">
+        <v>126</v>
+      </c>
+      <c r="G32" s="8">
+        <v>110</v>
+      </c>
+      <c r="H32" s="8">
+        <v>119</v>
       </c>
       <c r="I32" s="8">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" s="9">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K32" s="8">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L32" s="8">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+        <f>L32-K32</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="8">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8">
+        <v>112</v>
+      </c>
+      <c r="P32" s="8">
+        <f>N32-O32</f>
+        <v>-8</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -4692,48 +4922,55 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="8">
-        <v>65</v>
-      </c>
-      <c r="D33" s="9">
-        <v>137</v>
-      </c>
-      <c r="E33" s="8">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C33" s="9">
+        <v>95</v>
+      </c>
+      <c r="D33" s="8">
+        <v>133</v>
+      </c>
+      <c r="E33" s="9">
+        <v>90</v>
       </c>
       <c r="F33" s="8">
-        <v>111</v>
-      </c>
-      <c r="G33" s="8">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="G33" s="9">
+        <v>133</v>
       </c>
       <c r="H33" s="8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I33" s="8">
-        <v>75</v>
-      </c>
-      <c r="J33" s="8">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="J33" s="9">
+        <v>123</v>
       </c>
       <c r="K33" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L33" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+        <f>L33-K33</f>
+        <v>5</v>
+      </c>
+      <c r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8">
+        <v>127</v>
+      </c>
+      <c r="P33" s="8">
+        <f>N33-O33</f>
+        <v>-25</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -4745,48 +4982,53 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="4">
-        <v>6</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C34" s="8">
-        <v>70</v>
-      </c>
-      <c r="D34" s="9">
-        <v>139</v>
-      </c>
-      <c r="E34" s="8">
-        <v>80</v>
-      </c>
-      <c r="F34" s="9">
-        <v>130</v>
+        <v>85</v>
+      </c>
+      <c r="D34" s="8">
+        <v>125</v>
+      </c>
+      <c r="E34" s="9">
+        <v>85</v>
+      </c>
+      <c r="F34" s="8">
+        <v>119</v>
       </c>
       <c r="G34" s="8">
-        <v>122</v>
-      </c>
-      <c r="H34" s="8">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H34" s="8"/>
       <c r="I34" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J34" s="8">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K34" s="8">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L34" s="8">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+        <f>L34-K34</f>
+        <v>3</v>
+      </c>
+      <c r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8">
+        <v>134</v>
+      </c>
+      <c r="P34" s="8">
+        <f>N34-O34</f>
+        <v>-32</v>
+      </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -4798,48 +5040,55 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="4">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C35" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D35" s="8">
-        <v>123</v>
-      </c>
-      <c r="E35" s="9">
-        <v>85</v>
+        <v>108</v>
+      </c>
+      <c r="E35" s="8">
+        <v>75</v>
       </c>
       <c r="F35" s="8">
+        <v>103</v>
+      </c>
+      <c r="G35" s="8">
+        <v>115</v>
+      </c>
+      <c r="H35" s="8">
         <v>114</v>
       </c>
-      <c r="G35" s="8">
-        <v>126</v>
-      </c>
-      <c r="H35" s="8">
-        <v>112</v>
-      </c>
       <c r="I35" s="8">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J35" s="8">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K35" s="8">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L35" s="8">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+        <f>L35-K35</f>
+        <v>15</v>
+      </c>
+      <c r="N35" s="8">
+        <v>101</v>
+      </c>
+      <c r="O35" s="8">
+        <v>136</v>
+      </c>
+      <c r="P35" s="8">
+        <f>N35-O35</f>
+        <v>-35</v>
+      </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -4851,48 +5100,55 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C36" s="8">
+        <v>75</v>
+      </c>
+      <c r="D36" s="8">
+        <v>121</v>
+      </c>
+      <c r="E36" s="8">
         <v>80</v>
       </c>
-      <c r="D36" s="8">
-        <v>112</v>
-      </c>
-      <c r="E36" s="8">
-        <v>75</v>
-      </c>
       <c r="F36" s="8">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G36" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H36" s="8">
-        <v>105</v>
-      </c>
-      <c r="I36" s="8">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="I36" s="9">
+        <v>95</v>
       </c>
       <c r="J36" s="8">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K36" s="8">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L36" s="8">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+        <f>L36-K36</f>
+        <v>-6</v>
+      </c>
+      <c r="N36" s="8">
+        <v>99</v>
+      </c>
+      <c r="O36" s="8">
+        <v>115</v>
+      </c>
+      <c r="P36" s="8">
+        <f>N36-O36</f>
+        <v>-16</v>
+      </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -4904,48 +5160,55 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C37" s="8">
         <v>75</v>
       </c>
       <c r="D37" s="8">
-        <v>121</v>
-      </c>
-      <c r="E37" s="8">
-        <v>80</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="9">
+        <v>85</v>
       </c>
       <c r="F37" s="8">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G37" s="8">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="H37" s="8">
+        <v>134</v>
+      </c>
+      <c r="I37" s="8">
+        <v>95</v>
+      </c>
+      <c r="J37" s="8">
+        <v>117</v>
+      </c>
+      <c r="K37" s="8">
+        <v>126</v>
+      </c>
+      <c r="L37" s="9">
+        <v>145</v>
+      </c>
+      <c r="M37" s="16">
+        <f>L37-K37</f>
+        <v>19</v>
+      </c>
+      <c r="N37" s="8">
         <v>98</v>
       </c>
-      <c r="I37" s="9">
-        <v>95</v>
-      </c>
-      <c r="J37" s="8">
-        <v>93</v>
-      </c>
-      <c r="K37" s="8">
-        <v>121</v>
-      </c>
-      <c r="L37" s="8">
-        <v>115</v>
-      </c>
-      <c r="M37" s="8">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
+      <c r="O37" s="9">
+        <v>145</v>
+      </c>
+      <c r="P37" s="8">
+        <f>N37-O37</f>
+        <v>-47</v>
+      </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -4957,48 +5220,55 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C38" s="8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D38" s="8">
-        <v>120</v>
-      </c>
-      <c r="E38" s="9">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="E38" s="8">
+        <v>65</v>
       </c>
       <c r="F38" s="8">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G38" s="8">
         <v>110</v>
       </c>
       <c r="H38" s="8">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I38" s="8">
-        <v>90</v>
-      </c>
-      <c r="J38" s="9">
-        <v>127</v>
+        <v>70</v>
+      </c>
+      <c r="J38" s="8">
+        <v>91</v>
       </c>
       <c r="K38" s="8">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="L38" s="8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+        <f>L38-K38</f>
+        <v>-33</v>
+      </c>
+      <c r="N38" s="8">
+        <v>98</v>
+      </c>
+      <c r="O38" s="8">
+        <v>99</v>
+      </c>
+      <c r="P38" s="8">
+        <f>N38-O38</f>
+        <v>-1</v>
+      </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -5010,48 +5280,55 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C39" s="8">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D39" s="8">
-        <v>109</v>
-      </c>
-      <c r="E39" s="8">
+        <v>123</v>
+      </c>
+      <c r="E39" s="9">
+        <v>85</v>
+      </c>
+      <c r="F39" s="8">
+        <v>114</v>
+      </c>
+      <c r="G39" s="8">
+        <v>126</v>
+      </c>
+      <c r="H39" s="8">
+        <v>112</v>
+      </c>
+      <c r="I39" s="8">
         <v>75</v>
       </c>
-      <c r="F39" s="8">
-        <v>99</v>
-      </c>
-      <c r="G39" s="8">
-        <v>106</v>
-      </c>
-      <c r="H39" s="8">
-        <v>110</v>
-      </c>
-      <c r="I39" s="8">
-        <v>65</v>
-      </c>
       <c r="J39" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K39" s="8">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L39" s="8">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+        <f>L39-K39</f>
+        <v>-5</v>
+      </c>
+      <c r="N39" s="8">
+        <v>95</v>
+      </c>
+      <c r="O39" s="8">
+        <v>125</v>
+      </c>
+      <c r="P39" s="8">
+        <f>N39-O39</f>
+        <v>-30</v>
+      </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -5063,48 +5340,55 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C40" s="8">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E40" s="8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F40" s="8">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G40" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H40" s="8">
         <v>110</v>
       </c>
       <c r="I40" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J40" s="8">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K40" s="8">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="L40" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="0"/>
-        <v>-33</v>
-      </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
+        <f>L40-K40</f>
+        <v>-2</v>
+      </c>
+      <c r="N40" s="8">
+        <v>94</v>
+      </c>
+      <c r="O40" s="8">
+        <v>106</v>
+      </c>
+      <c r="P40" s="8">
+        <f>N40-O40</f>
+        <v>-12</v>
+      </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -5132,8 +5416,8 @@
       <c r="M41" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M40">
-    <sortCondition descending="1" ref="L2:L40"/>
+  <sortState ref="A2:P41">
+    <sortCondition descending="1" ref="N1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5145,8 +5429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
@@ -5161,7 +5445,11 @@
     <col min="10" max="10" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.625" style="4" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="3.75" style="4"/>
+    <col min="13" max="13" width="3.75" style="4"/>
+    <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.75" style="4"/>
+    <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="3.75" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5199,13 +5487,20 @@
       <c r="L1" s="9">
         <v>148</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="16">
         <f>L1-K1</f>
         <v>18</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="N1" s="9">
+        <v>137</v>
+      </c>
+      <c r="O1" s="9">
+        <v>148</v>
+      </c>
+      <c r="P1" s="8">
+        <f>N1-O1</f>
+        <v>-11</v>
+      </c>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -5251,12 +5546,19 @@
         <v>146</v>
       </c>
       <c r="M2" s="8">
-        <f t="shared" ref="M2:M39" si="0">L2-K2</f>
+        <f>L2-K2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="9">
+        <v>125</v>
+      </c>
+      <c r="O2" s="9">
+        <v>146</v>
+      </c>
+      <c r="P2" s="8">
+        <f t="shared" ref="P2:P39" si="0">N2-O2</f>
+        <v>-21</v>
+      </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -5265,98 +5567,113 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="4">
-        <v>3</v>
+      <c r="A3" s="8">
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8">
+        <v>91</v>
+      </c>
+      <c r="E3" s="9">
+        <v>95</v>
+      </c>
+      <c r="F3" s="9">
+        <v>110</v>
+      </c>
+      <c r="G3" s="8">
+        <v>103</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="I3" s="8">
         <v>75</v>
       </c>
-      <c r="D3" s="9">
-        <v>133</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
-        <v>79</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="J3" s="9">
+        <v>117</v>
+      </c>
+      <c r="K3" s="8">
         <v>116</v>
       </c>
-      <c r="H3" s="9">
-        <v>129</v>
-      </c>
-      <c r="I3" s="9">
-        <v>90</v>
-      </c>
-      <c r="J3" s="8">
-        <v>109</v>
-      </c>
-      <c r="K3" s="8">
-        <v>109</v>
-      </c>
       <c r="L3" s="9">
-        <v>136</v>
-      </c>
-      <c r="M3" s="17">
+        <v>128</v>
+      </c>
+      <c r="M3" s="16">
+        <f>L3-K3</f>
+        <v>12</v>
+      </c>
+      <c r="N3" s="9">
+        <v>117</v>
+      </c>
+      <c r="O3" s="9">
+        <v>128</v>
+      </c>
+      <c r="P3" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+        <v>-11</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8">
-        <v>65</v>
-      </c>
-      <c r="D4" s="9">
-        <v>131</v>
-      </c>
-      <c r="E4" s="9">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="8">
+        <v>111</v>
+      </c>
+      <c r="E4" s="8">
+        <v>75</v>
       </c>
       <c r="F4" s="9">
-        <v>105</v>
-      </c>
-      <c r="G4" s="9">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="G4" s="8">
+        <v>103</v>
       </c>
       <c r="H4" s="9">
-        <v>118</v>
-      </c>
-      <c r="I4" s="9">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="I4" s="8">
+        <v>80</v>
       </c>
       <c r="J4" s="9">
-        <v>115</v>
-      </c>
-      <c r="K4" s="13">
-        <v>126</v>
-      </c>
-      <c r="L4" s="9">
-        <v>136</v>
-      </c>
-      <c r="M4" s="17">
+        <v>128</v>
+      </c>
+      <c r="K4" s="9">
+        <v>128</v>
+      </c>
+      <c r="L4" s="8">
+        <v>116</v>
+      </c>
+      <c r="M4" s="8">
+        <f>L4-K4</f>
+        <v>-12</v>
+      </c>
+      <c r="N4" s="9">
+        <v>116</v>
+      </c>
+      <c r="O4" s="8">
+        <v>116</v>
+      </c>
+      <c r="P4" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+        <v>0</v>
+      </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -5366,46 +5683,55 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="4">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C5" s="8">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8">
+        <v>113</v>
+      </c>
       <c r="E5" s="9">
         <v>85</v>
       </c>
-      <c r="F5" s="8">
-        <v>88</v>
-      </c>
-      <c r="G5" s="9">
-        <v>112</v>
-      </c>
-      <c r="H5" s="9">
-        <v>137</v>
+      <c r="F5" s="9">
+        <v>128</v>
+      </c>
+      <c r="G5" s="8">
+        <v>107</v>
+      </c>
+      <c r="H5" s="8">
+        <v>104</v>
       </c>
       <c r="I5" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J5" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K5" s="9">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L5" s="9">
-        <v>134</v>
-      </c>
-      <c r="M5" s="17">
+        <v>128</v>
+      </c>
+      <c r="M5" s="8">
+        <f>L5-K5</f>
+        <v>-1</v>
+      </c>
+      <c r="N5" s="9">
+        <v>114</v>
+      </c>
+      <c r="O5" s="9">
+        <v>128</v>
+      </c>
+      <c r="P5" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+        <v>-14</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -5414,99 +5740,112 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="8">
-        <v>34</v>
+      <c r="A6" s="4">
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="8">
-        <v>60</v>
-      </c>
-      <c r="D6" s="8">
-        <v>104</v>
-      </c>
-      <c r="E6" s="8">
-        <v>80</v>
-      </c>
-      <c r="F6" s="8">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="9">
+        <v>85</v>
+      </c>
+      <c r="D6" s="9">
+        <v>141</v>
+      </c>
+      <c r="E6" s="9">
+        <v>85</v>
+      </c>
+      <c r="F6" s="9">
+        <v>126</v>
       </c>
       <c r="G6" s="8">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H6" s="8">
-        <v>107</v>
-      </c>
-      <c r="I6" s="8">
-        <v>85</v>
-      </c>
-      <c r="J6" s="9">
+        <v>114</v>
+      </c>
+      <c r="I6" s="9">
+        <v>95</v>
+      </c>
+      <c r="J6" s="12">
+        <v>108</v>
+      </c>
+      <c r="K6" s="9">
         <v>128</v>
       </c>
-      <c r="K6" s="9">
-        <v>135</v>
-      </c>
-      <c r="L6" s="9">
-        <v>134</v>
+      <c r="L6" s="8">
+        <v>127</v>
       </c>
       <c r="M6" s="8">
+        <f>L6-K6</f>
+        <v>-1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>113</v>
+      </c>
+      <c r="O6" s="8">
+        <v>127</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+        <v>-14</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="8">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8">
+        <v>64</v>
+      </c>
+      <c r="G7" s="9">
         <v>113</v>
       </c>
-      <c r="E7" s="8">
-        <v>70</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="H7" s="8">
+        <v>112</v>
+      </c>
+      <c r="I7" s="8">
+        <v>85</v>
+      </c>
+      <c r="J7" s="8">
+        <v>97</v>
+      </c>
+      <c r="K7" s="8">
+        <v>114</v>
+      </c>
+      <c r="L7" s="8">
+        <v>108</v>
+      </c>
+      <c r="M7" s="8">
+        <f>L7-K7</f>
+        <v>-6</v>
+      </c>
+      <c r="N7" s="9">
         <v>113</v>
       </c>
-      <c r="G7" s="8">
-        <v>105</v>
-      </c>
-      <c r="H7" s="8">
-        <v>113</v>
-      </c>
-      <c r="I7" s="9">
-        <v>90</v>
-      </c>
-      <c r="J7" s="9">
-        <v>127</v>
-      </c>
-      <c r="K7" s="8">
-        <v>118</v>
-      </c>
-      <c r="L7" s="9">
-        <v>131</v>
-      </c>
-      <c r="M7" s="17">
+      <c r="O7" s="8">
+        <v>108</v>
+      </c>
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+        <v>5</v>
+      </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5516,48 +5855,55 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="9">
-        <v>80</v>
-      </c>
-      <c r="D8" s="8">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="9">
+        <v>119</v>
       </c>
       <c r="E8" s="8">
         <v>80</v>
       </c>
       <c r="F8" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G8" s="8">
-        <v>87</v>
-      </c>
-      <c r="H8" s="8">
-        <v>101</v>
-      </c>
-      <c r="I8" s="8">
-        <v>75</v>
-      </c>
-      <c r="J8" s="8">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="H8" s="9">
+        <v>121</v>
+      </c>
+      <c r="I8" s="9">
+        <v>90</v>
+      </c>
+      <c r="J8" s="9">
+        <v>118</v>
       </c>
       <c r="K8" s="9">
         <v>124</v>
       </c>
-      <c r="L8" s="9">
-        <v>129</v>
+      <c r="L8" s="8">
+        <v>111</v>
       </c>
       <c r="M8" s="8">
+        <f>L8-K8</f>
+        <v>-13</v>
+      </c>
+      <c r="N8" s="9">
+        <v>113</v>
+      </c>
+      <c r="O8" s="8">
+        <v>111</v>
+      </c>
+      <c r="P8" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+        <v>2</v>
+      </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5566,49 +5912,56 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="4">
-        <v>14</v>
+      <c r="A9" s="15">
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8">
+        <v>104</v>
+      </c>
+      <c r="E9" s="8">
+        <v>80</v>
+      </c>
+      <c r="F9" s="8">
+        <v>91</v>
+      </c>
+      <c r="G9" s="8">
+        <v>81</v>
+      </c>
+      <c r="H9" s="8">
+        <v>107</v>
+      </c>
+      <c r="I9" s="8">
+        <v>85</v>
+      </c>
+      <c r="J9" s="9">
+        <v>128</v>
+      </c>
+      <c r="K9" s="9">
+        <v>135</v>
+      </c>
+      <c r="L9" s="9">
+        <v>134</v>
+      </c>
+      <c r="M9" s="8">
+        <f>L9-K9</f>
+        <v>-1</v>
+      </c>
+      <c r="N9" s="9">
         <v>113</v>
       </c>
-      <c r="E9" s="9">
-        <v>85</v>
-      </c>
-      <c r="F9" s="9">
-        <v>128</v>
-      </c>
-      <c r="G9" s="8">
-        <v>107</v>
-      </c>
-      <c r="H9" s="8">
-        <v>104</v>
-      </c>
-      <c r="I9" s="9">
-        <v>90</v>
-      </c>
-      <c r="J9" s="9">
-        <v>133</v>
-      </c>
-      <c r="K9" s="9">
-        <v>129</v>
-      </c>
-      <c r="L9" s="9">
-        <v>128</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="O9" s="9">
+        <v>134</v>
+      </c>
+      <c r="P9" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+        <v>-21</v>
+      </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5618,25 +5971,25 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="8">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C10" s="9">
+        <v>80</v>
       </c>
       <c r="D10" s="8">
-        <v>91</v>
-      </c>
-      <c r="E10" s="9">
-        <v>95</v>
-      </c>
-      <c r="F10" s="9">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="E10" s="8">
+        <v>80</v>
+      </c>
+      <c r="F10" s="8">
+        <v>89</v>
       </c>
       <c r="G10" s="8">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H10" s="8">
         <v>101</v>
@@ -5644,22 +5997,29 @@
       <c r="I10" s="8">
         <v>75</v>
       </c>
-      <c r="J10" s="9">
-        <v>117</v>
-      </c>
-      <c r="K10" s="8">
-        <v>116</v>
+      <c r="J10" s="8">
+        <v>84</v>
+      </c>
+      <c r="K10" s="9">
+        <v>124</v>
       </c>
       <c r="L10" s="9">
-        <v>128</v>
-      </c>
-      <c r="M10" s="17">
+        <v>129</v>
+      </c>
+      <c r="M10" s="8">
+        <f>L10-K10</f>
+        <v>5</v>
+      </c>
+      <c r="N10" s="9">
+        <v>112</v>
+      </c>
+      <c r="O10" s="9">
+        <v>129</v>
+      </c>
+      <c r="P10" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+        <v>-17</v>
+      </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5669,48 +6029,55 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="4">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="9">
-        <v>85</v>
-      </c>
-      <c r="D11" s="9">
-        <v>141</v>
-      </c>
-      <c r="E11" s="9">
-        <v>85</v>
-      </c>
-      <c r="F11" s="9">
-        <v>126</v>
-      </c>
-      <c r="G11" s="8">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="8">
+        <v>60</v>
+      </c>
+      <c r="D11" s="8">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>80</v>
+      </c>
+      <c r="F11" s="8">
+        <v>95</v>
+      </c>
+      <c r="G11" s="9">
+        <v>115</v>
       </c>
       <c r="H11" s="8">
-        <v>114</v>
-      </c>
-      <c r="I11" s="9">
-        <v>95</v>
-      </c>
-      <c r="J11" s="12">
-        <v>108</v>
-      </c>
-      <c r="K11" s="9">
-        <v>128</v>
+        <v>99</v>
+      </c>
+      <c r="I11" s="8">
+        <v>75</v>
+      </c>
+      <c r="J11" s="8">
+        <v>80</v>
+      </c>
+      <c r="K11" s="8">
+        <v>109</v>
       </c>
       <c r="L11" s="8">
-        <v>127</v>
-      </c>
-      <c r="M11" s="8">
+        <v>118</v>
+      </c>
+      <c r="M11" s="16">
+        <f>L11-K11</f>
+        <v>9</v>
+      </c>
+      <c r="N11" s="8">
+        <v>111</v>
+      </c>
+      <c r="O11" s="8">
+        <v>118</v>
+      </c>
+      <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+        <v>-7</v>
+      </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5720,46 +6087,55 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8">
-        <v>75</v>
-      </c>
-      <c r="D12" s="8">
-        <v>94</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
+        <v>134</v>
+      </c>
+      <c r="E12" s="9">
+        <v>85</v>
+      </c>
       <c r="F12" s="8">
-        <v>88</v>
-      </c>
-      <c r="G12" s="8">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="G12" s="9">
+        <v>127</v>
       </c>
       <c r="H12" s="8">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I12" s="8">
         <v>85</v>
       </c>
       <c r="J12" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K12" s="9">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L12" s="8">
         <v>126</v>
       </c>
       <c r="M12" s="8">
+        <f>L12-K12</f>
+        <v>-4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>111</v>
+      </c>
+      <c r="O12" s="8">
+        <v>126</v>
+      </c>
+      <c r="P12" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+        <v>-15</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5769,48 +6145,53 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8">
-        <v>60</v>
-      </c>
-      <c r="D13" s="9">
-        <v>134</v>
-      </c>
-      <c r="E13" s="9">
-        <v>85</v>
-      </c>
-      <c r="F13" s="8">
-        <v>92</v>
-      </c>
-      <c r="G13" s="9">
-        <v>127</v>
-      </c>
-      <c r="H13" s="8">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="D13" s="8">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8">
+        <v>65</v>
+      </c>
+      <c r="F13" s="9">
+        <v>100</v>
+      </c>
+      <c r="G13" s="8">
+        <v>89</v>
+      </c>
+      <c r="H13" s="9">
+        <v>119</v>
       </c>
       <c r="I13" s="8">
-        <v>85</v>
-      </c>
-      <c r="J13" s="8">
-        <v>102</v>
-      </c>
-      <c r="K13" s="9">
-        <v>130</v>
+        <v>80</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
+        <v>107</v>
       </c>
       <c r="L13" s="8">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="M13" s="8">
+        <f>L13-K13</f>
+        <v>-8</v>
+      </c>
+      <c r="N13" s="8">
+        <v>109</v>
+      </c>
+      <c r="O13" s="8">
+        <v>99</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+        <v>10</v>
+      </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5820,48 +6201,55 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8">
-        <v>55</v>
-      </c>
-      <c r="D14" s="9">
-        <v>122</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="8">
+        <v>113</v>
       </c>
       <c r="E14" s="8">
-        <v>65</v>
-      </c>
-      <c r="F14" s="8">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="F14" s="9">
+        <v>113</v>
       </c>
       <c r="G14" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H14" s="8">
-        <v>103</v>
-      </c>
-      <c r="I14" s="8">
-        <v>80</v>
-      </c>
-      <c r="J14" s="8">
-        <v>98</v>
+        <v>113</v>
+      </c>
+      <c r="I14" s="9">
+        <v>90</v>
+      </c>
+      <c r="J14" s="9">
+        <v>127</v>
       </c>
       <c r="K14" s="8">
-        <v>115</v>
-      </c>
-      <c r="L14" s="8">
-        <v>124</v>
-      </c>
-      <c r="M14" s="17">
+        <v>118</v>
+      </c>
+      <c r="L14" s="9">
+        <v>131</v>
+      </c>
+      <c r="M14" s="16">
+        <f>L14-K14</f>
+        <v>13</v>
+      </c>
+      <c r="N14" s="8">
+        <v>108</v>
+      </c>
+      <c r="O14" s="9">
+        <v>131</v>
+      </c>
+      <c r="P14" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+        <v>-23</v>
+      </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5871,48 +6259,53 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="8">
-        <v>55</v>
-      </c>
-      <c r="D15" s="8">
-        <v>76</v>
-      </c>
-      <c r="E15" s="8">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="C15" s="9">
+        <v>85</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9">
+        <v>85</v>
       </c>
       <c r="F15" s="8">
-        <v>75</v>
-      </c>
-      <c r="G15" s="8">
-        <v>90</v>
-      </c>
-      <c r="H15" s="8">
-        <v>92</v>
-      </c>
-      <c r="I15" s="8">
-        <v>80</v>
-      </c>
-      <c r="J15" s="8">
         <v>88</v>
       </c>
+      <c r="G15" s="9">
+        <v>112</v>
+      </c>
+      <c r="H15" s="9">
+        <v>137</v>
+      </c>
+      <c r="I15" s="9">
+        <v>95</v>
+      </c>
+      <c r="J15" s="9">
+        <v>132</v>
+      </c>
       <c r="K15" s="9">
-        <v>120</v>
-      </c>
-      <c r="L15" s="8">
-        <v>124</v>
-      </c>
-      <c r="M15" s="8">
+        <v>125</v>
+      </c>
+      <c r="L15" s="9">
+        <v>134</v>
+      </c>
+      <c r="M15" s="16">
+        <f>L15-K15</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="8">
+        <v>105</v>
+      </c>
+      <c r="O15" s="9">
+        <v>134</v>
+      </c>
+      <c r="P15" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+        <v>-29</v>
+      </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5922,48 +6315,53 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="4">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8">
-        <v>87</v>
-      </c>
-      <c r="E16" s="8">
-        <v>50</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D16" s="9">
+        <v>133</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>79</v>
       </c>
-      <c r="G16" s="8">
-        <v>102</v>
-      </c>
-      <c r="H16" s="8">
-        <v>110</v>
-      </c>
-      <c r="I16" s="8">
-        <v>70</v>
+      <c r="G16" s="9">
+        <v>116</v>
+      </c>
+      <c r="H16" s="9">
+        <v>129</v>
+      </c>
+      <c r="I16" s="9">
+        <v>90</v>
       </c>
       <c r="J16" s="8">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K16" s="8">
-        <v>102</v>
-      </c>
-      <c r="L16" s="8">
-        <v>123</v>
-      </c>
-      <c r="M16" s="17">
+        <v>109</v>
+      </c>
+      <c r="L16" s="9">
+        <v>136</v>
+      </c>
+      <c r="M16" s="16">
+        <f>L16-K16</f>
+        <v>27</v>
+      </c>
+      <c r="N16" s="8">
+        <v>103</v>
+      </c>
+      <c r="O16" s="9">
+        <v>136</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+        <v>-33</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5973,48 +6371,51 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="8">
-        <v>70</v>
-      </c>
-      <c r="D17" s="9">
-        <v>130</v>
-      </c>
-      <c r="E17" s="9">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>75</v>
       </c>
       <c r="F17" s="9">
+        <v>106</v>
+      </c>
+      <c r="G17" s="8">
+        <v>91</v>
+      </c>
+      <c r="H17" s="8">
+        <v>115</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9">
+        <v>144</v>
+      </c>
+      <c r="K17" s="9">
+        <v>132</v>
+      </c>
+      <c r="L17" s="8">
+        <v>114</v>
+      </c>
+      <c r="M17" s="8">
+        <f>L17-K17</f>
+        <v>-18</v>
+      </c>
+      <c r="N17" s="8">
         <v>103</v>
       </c>
-      <c r="G17" s="9">
-        <v>123</v>
-      </c>
-      <c r="H17" s="8">
-        <v>106</v>
-      </c>
-      <c r="I17" s="8">
-        <v>80</v>
-      </c>
-      <c r="J17" s="8">
-        <v>91</v>
-      </c>
-      <c r="K17" s="9">
-        <v>121</v>
-      </c>
-      <c r="L17" s="8">
-        <v>122</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="O17" s="8">
+        <v>114</v>
+      </c>
+      <c r="P17" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+        <v>-11</v>
+      </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -6024,48 +6425,55 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C18" s="8">
         <v>55</v>
       </c>
-      <c r="D18" s="9">
-        <v>119</v>
+      <c r="D18" s="8">
+        <v>76</v>
       </c>
       <c r="E18" s="8">
+        <v>60</v>
+      </c>
+      <c r="F18" s="8">
         <v>75</v>
       </c>
-      <c r="F18" s="8">
-        <v>72</v>
-      </c>
       <c r="G18" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="8">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I18" s="8">
-        <v>85</v>
-      </c>
-      <c r="J18" s="12">
-        <v>101</v>
-      </c>
-      <c r="K18" s="8">
-        <v>116</v>
+        <v>80</v>
+      </c>
+      <c r="J18" s="8">
+        <v>88</v>
+      </c>
+      <c r="K18" s="9">
+        <v>120</v>
       </c>
       <c r="L18" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M18" s="8">
+        <f>L18-K18</f>
+        <v>4</v>
+      </c>
+      <c r="N18" s="8">
+        <v>100</v>
+      </c>
+      <c r="O18" s="8">
+        <v>124</v>
+      </c>
+      <c r="P18" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+        <v>-24</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -6075,48 +6483,55 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="4">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="8">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8">
+        <v>93</v>
+      </c>
+      <c r="E19" s="9">
+        <v>85</v>
+      </c>
+      <c r="F19" s="8">
+        <v>87</v>
+      </c>
+      <c r="G19" s="8">
+        <v>85</v>
+      </c>
+      <c r="H19" s="8">
+        <v>97</v>
+      </c>
+      <c r="I19" s="8">
+        <v>80</v>
+      </c>
+      <c r="J19" s="8">
         <v>77</v>
       </c>
-      <c r="C19" s="8">
-        <v>60</v>
-      </c>
-      <c r="D19" s="8">
-        <v>100</v>
-      </c>
-      <c r="E19" s="8">
-        <v>75</v>
-      </c>
-      <c r="F19" s="9">
-        <v>104</v>
-      </c>
-      <c r="G19" s="8">
-        <v>97</v>
-      </c>
-      <c r="H19" s="8">
-        <v>116</v>
-      </c>
-      <c r="I19" s="8">
-        <v>70</v>
-      </c>
-      <c r="J19" s="8">
-        <v>106</v>
-      </c>
       <c r="K19" s="8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L19" s="8">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M19" s="8">
+        <f>L19-K19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>99</v>
+      </c>
+      <c r="O19" s="8">
+        <v>105</v>
+      </c>
+      <c r="P19" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+        <v>-6</v>
+      </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -6126,48 +6541,53 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8">
-        <v>97</v>
-      </c>
-      <c r="E20" s="9">
-        <v>85</v>
+        <v>106</v>
+      </c>
+      <c r="E20" s="8">
+        <v>65</v>
       </c>
       <c r="F20" s="8">
-        <v>93</v>
-      </c>
-      <c r="G20" s="8">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="8">
+        <v>107</v>
+      </c>
+      <c r="I20" s="9">
+        <v>90</v>
+      </c>
+      <c r="J20" s="9">
+        <v>126</v>
+      </c>
+      <c r="K20" s="8">
+        <v>115</v>
+      </c>
+      <c r="L20" s="8">
+        <v>103</v>
+      </c>
+      <c r="M20" s="8">
+        <f>L20-K20</f>
+        <v>-12</v>
+      </c>
+      <c r="N20" s="8">
         <v>99</v>
       </c>
-      <c r="I20" s="8">
-        <v>85</v>
-      </c>
-      <c r="J20" s="8">
-        <v>102</v>
-      </c>
-      <c r="K20" s="8">
-        <v>107</v>
-      </c>
-      <c r="L20" s="8">
-        <v>119</v>
-      </c>
-      <c r="M20" s="17">
+      <c r="O20" s="8">
+        <v>103</v>
+      </c>
+      <c r="P20" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+        <v>-4</v>
+      </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -6177,48 +6597,55 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8">
+        <v>70</v>
+      </c>
+      <c r="D21" s="9">
+        <v>130</v>
+      </c>
+      <c r="E21" s="9">
+        <v>90</v>
+      </c>
+      <c r="F21" s="9">
+        <v>103</v>
+      </c>
+      <c r="G21" s="9">
+        <v>123</v>
+      </c>
+      <c r="H21" s="8">
+        <v>106</v>
+      </c>
+      <c r="I21" s="8">
+        <v>80</v>
+      </c>
+      <c r="J21" s="8">
+        <v>91</v>
+      </c>
+      <c r="K21" s="9">
+        <v>121</v>
+      </c>
+      <c r="L21" s="8">
+        <v>122</v>
+      </c>
+      <c r="M21" s="8">
+        <f>L21-K21</f>
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8">
-        <v>75</v>
-      </c>
-      <c r="D21" s="8">
-        <v>93</v>
-      </c>
-      <c r="E21" s="8">
-        <v>70</v>
-      </c>
-      <c r="F21" s="8">
-        <v>95</v>
-      </c>
-      <c r="G21" s="8">
-        <v>105</v>
-      </c>
-      <c r="H21" s="8">
-        <v>88</v>
-      </c>
-      <c r="I21" s="8">
-        <v>85</v>
-      </c>
-      <c r="J21" s="8">
-        <v>108</v>
-      </c>
-      <c r="K21" s="9">
-        <v>124</v>
-      </c>
-      <c r="L21" s="8">
-        <v>118</v>
-      </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
+        <v>96</v>
+      </c>
+      <c r="O21" s="8">
+        <v>122</v>
+      </c>
+      <c r="P21" s="8">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+        <v>-26</v>
+      </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6228,48 +6655,55 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="9">
+        <v>122</v>
       </c>
       <c r="E22" s="8">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8">
+        <v>92</v>
+      </c>
+      <c r="G22" s="8">
+        <v>101</v>
+      </c>
+      <c r="H22" s="8">
+        <v>103</v>
+      </c>
+      <c r="I22" s="8">
         <v>80</v>
       </c>
-      <c r="F22" s="8">
-        <v>95</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="J22" s="8">
+        <v>98</v>
+      </c>
+      <c r="K22" s="8">
         <v>115</v>
       </c>
-      <c r="H22" s="8">
-        <v>99</v>
-      </c>
-      <c r="I22" s="8">
-        <v>75</v>
-      </c>
-      <c r="J22" s="8">
-        <v>80</v>
-      </c>
-      <c r="K22" s="8">
-        <v>109</v>
-      </c>
       <c r="L22" s="8">
-        <v>118</v>
-      </c>
-      <c r="M22" s="17">
+        <v>124</v>
+      </c>
+      <c r="M22" s="16">
+        <f>L22-K22</f>
+        <v>9</v>
+      </c>
+      <c r="N22" s="8">
+        <v>96</v>
+      </c>
+      <c r="O22" s="8">
+        <v>124</v>
+      </c>
+      <c r="P22" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+        <v>-28</v>
+      </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6279,48 +6713,53 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="4">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8">
-        <v>111</v>
-      </c>
-      <c r="E23" s="8">
-        <v>75</v>
-      </c>
-      <c r="F23" s="9">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>88</v>
       </c>
       <c r="G23" s="8">
-        <v>103</v>
-      </c>
-      <c r="H23" s="9">
+        <v>109</v>
+      </c>
+      <c r="H23" s="8">
+        <v>113</v>
+      </c>
+      <c r="I23" s="8">
+        <v>85</v>
+      </c>
+      <c r="J23" s="8">
+        <v>107</v>
+      </c>
+      <c r="K23" s="9">
         <v>124</v>
       </c>
-      <c r="I23" s="8">
-        <v>80</v>
-      </c>
-      <c r="J23" s="9">
-        <v>128</v>
-      </c>
-      <c r="K23" s="9">
-        <v>128</v>
-      </c>
       <c r="L23" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M23" s="8">
+        <f>L23-K23</f>
+        <v>2</v>
+      </c>
+      <c r="N23" s="8">
+        <v>93</v>
+      </c>
+      <c r="O23" s="8">
+        <v>126</v>
+      </c>
+      <c r="P23" s="8">
         <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+        <v>-33</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6330,44 +6769,55 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="8">
-        <v>60</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="8">
+        <v>75</v>
+      </c>
       <c r="E24" s="8">
-        <v>75</v>
-      </c>
-      <c r="F24" s="9">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="F24" s="8">
+        <v>50</v>
       </c>
       <c r="G24" s="8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H24" s="8">
-        <v>115</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9">
-        <v>144</v>
-      </c>
-      <c r="K24" s="9">
-        <v>132</v>
+        <v>85</v>
+      </c>
+      <c r="I24" s="8">
+        <v>65</v>
+      </c>
+      <c r="J24" s="8">
+        <v>93</v>
+      </c>
+      <c r="K24" s="8">
+        <v>105</v>
       </c>
       <c r="L24" s="8">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M24" s="8">
+        <f>L24-K24</f>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="8">
+        <v>92</v>
+      </c>
+      <c r="O24" s="8">
+        <v>104</v>
+      </c>
+      <c r="P24" s="8">
         <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+        <v>-12</v>
+      </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6377,48 +6827,55 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D25" s="8">
-        <v>75</v>
-      </c>
-      <c r="E25" s="8">
-        <v>65</v>
+        <v>105</v>
+      </c>
+      <c r="E25" s="9">
+        <v>85</v>
       </c>
       <c r="F25" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G25" s="8">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H25" s="8">
-        <v>86</v>
-      </c>
-      <c r="I25" s="8">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="I25" s="9">
+        <v>90</v>
       </c>
       <c r="J25" s="8">
-        <v>72</v>
-      </c>
-      <c r="K25" s="8">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="K25" s="12">
+        <v>96</v>
       </c>
       <c r="L25" s="8">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M25" s="8">
+        <f>L25-K25</f>
+        <v>5</v>
+      </c>
+      <c r="N25" s="8">
+        <v>89</v>
+      </c>
+      <c r="O25" s="8">
+        <v>101</v>
+      </c>
+      <c r="P25" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+        <v>-12</v>
+      </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6428,48 +6885,55 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="4">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="9">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="C26" s="8">
+        <v>65</v>
       </c>
       <c r="D26" s="8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E26" s="8">
+        <v>55</v>
+      </c>
+      <c r="F26" s="8">
+        <v>88</v>
+      </c>
+      <c r="G26" s="8">
+        <v>93</v>
+      </c>
+      <c r="H26" s="8">
+        <v>112</v>
+      </c>
+      <c r="I26" s="8">
         <v>80</v>
       </c>
-      <c r="F26" s="8">
-        <v>81</v>
-      </c>
-      <c r="G26" s="8">
-        <v>83</v>
-      </c>
-      <c r="H26" s="8">
-        <v>87</v>
-      </c>
-      <c r="I26" s="9">
-        <v>95</v>
-      </c>
       <c r="J26" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K26" s="8">
         <v>112</v>
       </c>
       <c r="L26" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M26" s="8">
+        <f>L26-K26</f>
+        <v>-2</v>
+      </c>
+      <c r="N26" s="8">
+        <v>89</v>
+      </c>
+      <c r="O26" s="8">
+        <v>110</v>
+      </c>
+      <c r="P26" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+        <v>-21</v>
+      </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6479,48 +6943,55 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="9">
-        <v>90</v>
-      </c>
-      <c r="D27" s="9">
+        <v>77</v>
+      </c>
+      <c r="C27" s="8">
+        <v>60</v>
+      </c>
+      <c r="D27" s="8">
+        <v>100</v>
+      </c>
+      <c r="E27" s="8">
+        <v>75</v>
+      </c>
+      <c r="F27" s="9">
+        <v>104</v>
+      </c>
+      <c r="G27" s="8">
+        <v>97</v>
+      </c>
+      <c r="H27" s="8">
+        <v>116</v>
+      </c>
+      <c r="I27" s="8">
+        <v>70</v>
+      </c>
+      <c r="J27" s="8">
+        <v>106</v>
+      </c>
+      <c r="K27" s="8">
         <v>119</v>
       </c>
-      <c r="E27" s="8">
-        <v>80</v>
-      </c>
-      <c r="F27" s="8">
-        <v>95</v>
-      </c>
-      <c r="G27" s="8">
-        <v>103</v>
-      </c>
-      <c r="H27" s="9">
-        <v>121</v>
-      </c>
-      <c r="I27" s="9">
-        <v>90</v>
-      </c>
-      <c r="J27" s="9">
-        <v>118</v>
-      </c>
-      <c r="K27" s="9">
-        <v>124</v>
-      </c>
       <c r="L27" s="8">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M27" s="8">
+        <f>L27-K27</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="8">
+        <v>89</v>
+      </c>
+      <c r="O27" s="8">
+        <v>120</v>
+      </c>
+      <c r="P27" s="8">
         <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+        <v>-31</v>
+      </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6529,49 +7000,56 @@
       <c r="V27" s="8"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="4">
-        <v>12</v>
+      <c r="A28" s="15">
+        <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C28" s="8">
         <v>65</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
+        <v>131</v>
+      </c>
+      <c r="E28" s="9">
+        <v>85</v>
+      </c>
+      <c r="F28" s="9">
+        <v>105</v>
+      </c>
+      <c r="G28" s="9">
+        <v>133</v>
+      </c>
+      <c r="H28" s="9">
+        <v>118</v>
+      </c>
+      <c r="I28" s="9">
+        <v>95</v>
+      </c>
+      <c r="J28" s="9">
         <v>115</v>
       </c>
-      <c r="E28" s="8">
-        <v>55</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="K28" s="13">
+        <v>126</v>
+      </c>
+      <c r="L28" s="9">
+        <v>136</v>
+      </c>
+      <c r="M28" s="16">
+        <f>L28-K28</f>
+        <v>10</v>
+      </c>
+      <c r="N28" s="8">
         <v>88</v>
       </c>
-      <c r="G28" s="8">
-        <v>93</v>
-      </c>
-      <c r="H28" s="8">
-        <v>112</v>
-      </c>
-      <c r="I28" s="8">
-        <v>80</v>
-      </c>
-      <c r="J28" s="8">
-        <v>104</v>
-      </c>
-      <c r="K28" s="8">
-        <v>112</v>
-      </c>
-      <c r="L28" s="8">
-        <v>110</v>
-      </c>
-      <c r="M28" s="8">
+      <c r="O28" s="9">
+        <v>136</v>
+      </c>
+      <c r="P28" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
+        <v>-48</v>
+      </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6581,46 +7059,55 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="4">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="C29" s="8">
+        <v>75</v>
+      </c>
       <c r="D29" s="8">
-        <v>87</v>
-      </c>
-      <c r="E29" s="8">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="E29" s="9">
+        <v>85</v>
       </c>
       <c r="F29" s="8">
-        <v>64</v>
-      </c>
-      <c r="G29" s="9">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="G29" s="8">
+        <v>102</v>
       </c>
       <c r="H29" s="8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I29" s="8">
         <v>85</v>
       </c>
       <c r="J29" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K29" s="8">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L29" s="8">
-        <v>108</v>
-      </c>
-      <c r="M29" s="8">
+        <v>119</v>
+      </c>
+      <c r="M29" s="16">
+        <f>L29-K29</f>
+        <v>12</v>
+      </c>
+      <c r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8">
+        <v>119</v>
+      </c>
+      <c r="P29" s="8">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
+        <v>-33</v>
+      </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6630,48 +7117,55 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="4">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8">
         <v>55</v>
       </c>
-      <c r="D30" s="8">
-        <v>110</v>
+      <c r="D30" s="9">
+        <v>119</v>
       </c>
       <c r="E30" s="8">
         <v>75</v>
       </c>
-      <c r="F30" s="9">
-        <v>103</v>
+      <c r="F30" s="8">
+        <v>72</v>
       </c>
       <c r="G30" s="8">
         <v>91</v>
       </c>
       <c r="H30" s="8">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I30" s="8">
-        <v>70</v>
-      </c>
-      <c r="J30" s="9">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="J30" s="12">
+        <v>101</v>
       </c>
       <c r="K30" s="8">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L30" s="8">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M30" s="8">
+        <f>L30-K30</f>
+        <v>4</v>
+      </c>
+      <c r="N30" s="8">
+        <v>85</v>
+      </c>
+      <c r="O30" s="8">
+        <v>120</v>
+      </c>
+      <c r="P30" s="8">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+        <v>-35</v>
+      </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6681,48 +7175,55 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="4">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C31" s="8">
+        <v>60</v>
+      </c>
+      <c r="D31" s="8">
+        <v>75</v>
+      </c>
+      <c r="E31" s="8">
+        <v>65</v>
+      </c>
+      <c r="F31" s="8">
         <v>70</v>
       </c>
-      <c r="D31" s="8">
-        <v>93</v>
-      </c>
-      <c r="E31" s="9">
-        <v>85</v>
-      </c>
-      <c r="F31" s="8">
-        <v>87</v>
-      </c>
       <c r="G31" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H31" s="8">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I31" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J31" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K31" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L31" s="8">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M31" s="8">
+        <f>L31-K31</f>
+        <v>-2</v>
+      </c>
+      <c r="N31" s="8">
+        <v>84</v>
+      </c>
+      <c r="O31" s="8">
+        <v>113</v>
+      </c>
+      <c r="P31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+        <v>-29</v>
+      </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6732,48 +7233,55 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="4">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8">
         <v>55</v>
       </c>
-      <c r="C32" s="8">
-        <v>50</v>
-      </c>
       <c r="D32" s="8">
+        <v>110</v>
+      </c>
+      <c r="E32" s="8">
         <v>75</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="9">
+        <v>103</v>
+      </c>
+      <c r="G32" s="8">
+        <v>91</v>
+      </c>
+      <c r="H32" s="8">
+        <v>96</v>
+      </c>
+      <c r="I32" s="8">
         <v>70</v>
       </c>
-      <c r="F32" s="8">
-        <v>50</v>
-      </c>
-      <c r="G32" s="8">
-        <v>80</v>
-      </c>
-      <c r="H32" s="8">
-        <v>85</v>
-      </c>
-      <c r="I32" s="8">
-        <v>65</v>
-      </c>
-      <c r="J32" s="8">
-        <v>93</v>
+      <c r="J32" s="9">
+        <v>110</v>
       </c>
       <c r="K32" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L32" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M32" s="8">
+        <f>L32-K32</f>
+        <v>-2</v>
+      </c>
+      <c r="N32" s="8">
+        <v>84</v>
+      </c>
+      <c r="O32" s="8">
+        <v>107</v>
+      </c>
+      <c r="P32" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+        <v>-23</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6783,48 +7291,55 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="4">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C33" s="8">
+        <v>55</v>
+      </c>
+      <c r="D33" s="8">
+        <v>71</v>
+      </c>
+      <c r="E33" s="8">
+        <v>80</v>
+      </c>
+      <c r="F33" s="8">
+        <v>46</v>
+      </c>
+      <c r="G33" s="8">
+        <v>63</v>
+      </c>
+      <c r="H33" s="9">
+        <v>129</v>
+      </c>
+      <c r="I33" s="8">
         <v>65</v>
       </c>
-      <c r="D33" s="8">
-        <v>77</v>
-      </c>
-      <c r="E33" s="8">
-        <v>70</v>
-      </c>
-      <c r="F33" s="8">
-        <v>61</v>
-      </c>
-      <c r="G33" s="8">
-        <v>88</v>
-      </c>
-      <c r="H33" s="8">
-        <v>114</v>
-      </c>
-      <c r="I33" s="8">
-        <v>70</v>
-      </c>
       <c r="J33" s="8">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K33" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L33" s="8">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M33" s="8">
+        <f>L33-K33</f>
+        <v>-10</v>
+      </c>
+      <c r="N33" s="8">
+        <v>81</v>
+      </c>
+      <c r="O33" s="8">
+        <v>85</v>
+      </c>
+      <c r="P33" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+        <v>-4</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6834,46 +7349,55 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="4">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="8">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="C34" s="9">
+        <v>85</v>
       </c>
       <c r="D34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E34" s="8">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F34" s="8">
-        <v>92</v>
-      </c>
-      <c r="G34" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="G34" s="8">
+        <v>83</v>
+      </c>
       <c r="H34" s="8">
+        <v>87</v>
+      </c>
+      <c r="I34" s="9">
+        <v>95</v>
+      </c>
+      <c r="J34" s="8">
         <v>107</v>
       </c>
-      <c r="I34" s="9">
-        <v>90</v>
-      </c>
-      <c r="J34" s="9">
-        <v>126</v>
-      </c>
       <c r="K34" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L34" s="8">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M34" s="8">
+        <f>L34-K34</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>80</v>
+      </c>
+      <c r="O34" s="8">
+        <v>113</v>
+      </c>
+      <c r="P34" s="8">
         <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+        <v>-33</v>
+      </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6883,48 +7407,55 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C35" s="8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D35" s="8">
+        <v>93</v>
+      </c>
+      <c r="E35" s="8">
+        <v>70</v>
+      </c>
+      <c r="F35" s="8">
+        <v>95</v>
+      </c>
+      <c r="G35" s="8">
         <v>105</v>
       </c>
-      <c r="E35" s="9">
+      <c r="H35" s="8">
+        <v>88</v>
+      </c>
+      <c r="I35" s="8">
         <v>85</v>
       </c>
-      <c r="F35" s="8">
-        <v>74</v>
-      </c>
-      <c r="G35" s="8">
-        <v>78</v>
-      </c>
-      <c r="H35" s="8">
-        <v>113</v>
-      </c>
-      <c r="I35" s="9">
-        <v>90</v>
-      </c>
       <c r="J35" s="8">
-        <v>78</v>
-      </c>
-      <c r="K35" s="12">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="K35" s="9">
+        <v>124</v>
       </c>
       <c r="L35" s="8">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="M35" s="8">
+        <f>L35-K35</f>
+        <v>-6</v>
+      </c>
+      <c r="N35" s="8">
+        <v>79</v>
+      </c>
+      <c r="O35" s="8">
+        <v>118</v>
+      </c>
+      <c r="P35" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+        <v>-39</v>
+      </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6934,46 +7465,55 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="4">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C36" s="8">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D36" s="8">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E36" s="8">
-        <v>65</v>
-      </c>
-      <c r="F36" s="9">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="F36" s="8">
+        <v>79</v>
       </c>
       <c r="G36" s="8">
-        <v>89</v>
-      </c>
-      <c r="H36" s="9">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="H36" s="8">
+        <v>110</v>
       </c>
       <c r="I36" s="8">
-        <v>80</v>
-      </c>
-      <c r="J36" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="J36" s="8">
+        <v>101</v>
+      </c>
       <c r="K36" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L36" s="8">
-        <v>99</v>
-      </c>
-      <c r="M36" s="8">
+        <v>123</v>
+      </c>
+      <c r="M36" s="16">
+        <f>L36-K36</f>
+        <v>21</v>
+      </c>
+      <c r="N36" s="8">
+        <v>78</v>
+      </c>
+      <c r="O36" s="8">
+        <v>123</v>
+      </c>
+      <c r="P36" s="8">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+        <v>-45</v>
+      </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -6983,48 +7523,55 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D37" s="8">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E37" s="8">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F37" s="8">
+        <v>61</v>
+      </c>
+      <c r="G37" s="8">
         <v>88</v>
       </c>
-      <c r="G37" s="8">
-        <v>84</v>
-      </c>
       <c r="H37" s="8">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I37" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J37" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K37" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L37" s="8">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M37" s="8">
+        <f>L37-K37</f>
+        <v>5</v>
+      </c>
+      <c r="N37" s="8">
+        <v>76</v>
+      </c>
+      <c r="O37" s="8">
+        <v>104</v>
+      </c>
+      <c r="P37" s="8">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
+        <v>-28</v>
+      </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -7034,48 +7581,55 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C38" s="8">
+        <v>60</v>
+      </c>
+      <c r="D38" s="8">
+        <v>111</v>
+      </c>
+      <c r="E38" s="8">
         <v>55</v>
       </c>
-      <c r="D38" s="8">
-        <v>71</v>
-      </c>
-      <c r="E38" s="8">
-        <v>80</v>
-      </c>
       <c r="F38" s="8">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G38" s="8">
-        <v>63</v>
-      </c>
-      <c r="H38" s="9">
-        <v>129</v>
+        <v>84</v>
+      </c>
+      <c r="H38" s="8">
+        <v>107</v>
       </c>
       <c r="I38" s="8">
         <v>65</v>
       </c>
       <c r="J38" s="8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K38" s="8">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L38" s="8">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M38" s="8">
+        <f>L38-K38</f>
+        <v>-6</v>
+      </c>
+      <c r="N38" s="8">
+        <v>75</v>
+      </c>
+      <c r="O38" s="8">
+        <v>97</v>
+      </c>
+      <c r="P38" s="8">
         <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+        <v>-22</v>
+      </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -7103,12 +7657,17 @@
         <v>46</v>
       </c>
       <c r="M39" s="8">
+        <f>L39-K39</f>
+        <v>46</v>
+      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8">
+        <v>46</v>
+      </c>
+      <c r="P39" s="8">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+        <v>-46</v>
+      </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -7123,8 +7682,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M39">
-    <sortCondition descending="1" ref="L2:L39"/>
+  <sortState ref="A2:N40">
+    <sortCondition descending="1" ref="N1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
